--- a/biology/Zoologie/Guit-guit/Guit-guit.xlsx
+++ b/biology/Zoologie/Guit-guit/Guit-guit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En ornithologie, le nom vernaculaire Guit-guit est le nom normalisé (CINFO) de 5 espèces d'oiseaux de 2 genres voisins. Certains guit-guits sont aussi appelés Sucriers.
 </t>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot même de Guit-guit qui désigne de petits passereaux en Amérique tropicale, serait une transcription espagnole d'un mot autochtone de cette région[1]. Il apparaîtrait dès le 16e siècle sous la forme « guitguit » sous la plume du botaniste espagnol Francisco Hernandez[1].
-En 1853, alors qu'il est considéré comme un genre, il est décrit comme comportant des oiseaux avec un bec faiblement arqué et épais à sa base[2]. Les narines de ces oiseaux sont petites. Sur les quatre doigts, trois sont vers l'avant avec le tarse plus long que le doigt intermédiaire. Les doigts latéraux sont de même longueurs[2]. Cuvier pensait qu'il fallait ajouter à ce genre des oiseaux d'Inde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot même de Guit-guit qui désigne de petits passereaux en Amérique tropicale, serait une transcription espagnole d'un mot autochtone de cette région. Il apparaîtrait dès le 16e siècle sous la forme « guitguit » sous la plume du botaniste espagnol Francisco Hernandez.
+En 1853, alors qu'il est considéré comme un genre, il est décrit comme comportant des oiseaux avec un bec faiblement arqué et épais à sa base. Les narines de ces oiseaux sont petites. Sur les quatre doigts, trois sont vers l'avant avec le tarse plus long que le doigt intermédiaire. Les doigts latéraux sont de même longueurs. Cuvier pensait qu'il fallait ajouter à ce genre des oiseaux d'Inde.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Guit-guits sont des oiseaux d'Amérique tropicale et que l'on retrouve depuis le Brésil jusqu'au Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Guit-guits sont des oiseaux d'Amérique tropicale et que l'on retrouve depuis le Brésil jusqu'au Mexique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits passereaux nectarivores et frugivores[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits passereaux nectarivores et frugivores.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un nom vernaculaire regroupant au moins quatre espèces de Cyanerpes. On retrouve aussi l’orthographe guitguit[1]. Durant les XVIIIe et XIXe siècles, le nom de guit-guit a été utilisé pour nommer d'autres espèces d'oiseaux que ceux présents dans la nomenclature actuelle[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un nom vernaculaire regroupant au moins quatre espèces de Cyanerpes. On retrouve aussi l’orthographe guitguit. Durant les XVIIIe et XIXe siècles, le nom de guit-guit a été utilisé pour nommer d'autres espèces d'oiseaux que ceux présents dans la nomenclature actuelle.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Liste alphabétique des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Guit-guit à bec court (Cyanerpes nitidus)
 Guit-guit brillant (Cyanerpes lucidus)
